--- a/biology/Zoologie/Chelosphargis_advena/Chelosphargis_advena.xlsx
+++ b/biology/Zoologie/Chelosphargis_advena/Chelosphargis_advena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chelosphargis advena est une tortue marine préhistorique, de la famille des Protostegidae, qui vivait en Amérique du Nord durant le Crétacé. C'est l'unique espèce du genre Chelospargis.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chelosphargis advena a été décrite en 1906 par Oliver Perry Hay, sous le nom de Protostega advena. Rainer Zangerl en reprendra la description plus tard, en créant pour l'espèce le genre Chelosphargis. L'espèce est notamment connue par un grand nombre de fossiles de juvéniles, découverts dans le Kansas.
 Cette tortue présentait de nombreux caractères permettant de la placer au sein de la famille des Protostegidae, notamment au niveau de la symphyse du maxillaire inférieur, caractère partagé notamment avec les genres Archelon et Protostega.
@@ -546,7 +560,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Rainer Zangerl, The Vertebrate Fauna of the Selma Formation of Alabama, 1953
  Portail de l’herpétologie   Portail de la paléontologie   Portail du Kansas                   </t>
